--- a/salary.xlsx
+++ b/salary.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,9 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,9 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,17 +417,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Salary Components</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Yealy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
@@ -490,16 +494,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Basic Salary</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <f>C2+C3+C4+C5</f>
+        <f>SUM(C2:C5)</f>
         <v/>
       </c>
     </row>
@@ -530,17 +534,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>CTC</t>
         </is>
       </c>
       <c r="B9" s="1">
-        <f>B6+B7+B8</f>
+        <f>SUM(B6:B8)</f>
         <v/>
       </c>
       <c r="C9" s="1">
-        <f>C6+C8</f>
+        <f>SUM(C6:C8)</f>
         <v/>
       </c>
     </row>

--- a/salary.xlsx
+++ b/salary.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,15 +33,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,10 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,37 +418,37 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.28515625" customWidth="1" min="1" max="1"/>
+    <col width="20.85546875" customWidth="1" min="1" max="1"/>
     <col width="15.7109375" customWidth="1" min="2" max="2"/>
     <col width="17.7109375" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Salary Components</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Yealy</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Monthly</t>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Yealy(INR)</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Monthly(INR)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Base Salary</t>
+          <t>Basic Salary</t>
         </is>
       </c>
       <c r="B2">
@@ -466,7 +478,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>Special Allowance</t>
         </is>
       </c>
       <c r="B4">
@@ -494,15 +506,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Basic Salary</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Base Salary</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
         <f>SUM(C2:C5)</f>
         <v/>
       </c>
@@ -510,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Yearly Bonus</t>
+          <t>Annual Bonus</t>
         </is>
       </c>
       <c r="B7">
@@ -534,16 +546,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>CTC</t>
-        </is>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Cost To Company</t>
+        </is>
+      </c>
+      <c r="B9" s="2">
         <f>SUM(B6:B8)</f>
         <v/>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f>SUM(C6:C8)</f>
         <v/>
       </c>
